--- a/database/industries/methanol/shekolor/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/methanol/shekolor/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE480F68-B5F6-4656-9778-BE08880D490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFEB1A2-F69C-40CF-8760-5605F5FBBC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>9 ماهه منتهی به 1399/02</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/12</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>12 ماهه منتهی به 1401/08</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-03-30</t>
-  </si>
-  <si>
     <t>1400-10-08 (15)</t>
   </si>
   <si>
@@ -94,7 +91,10 @@
     <t>1401-06-30</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1401-12-29 (4)</t>
+  </si>
+  <si>
+    <t>1401-12-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -787,10 +787,10 @@
       <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
         <v>20</v>
       </c>
@@ -807,7 +807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -821,151 +821,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>10787</v>
+        <v>8822</v>
       </c>
       <c r="E11" s="13">
-        <v>8822</v>
+        <v>2871</v>
       </c>
       <c r="F11" s="13">
-        <v>2871</v>
-      </c>
-      <c r="G11" s="13">
         <v>8224</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>26</v>
+      <c r="G11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="13">
+        <v>12079</v>
       </c>
       <c r="I11" s="13">
-        <v>12079</v>
+        <v>6294</v>
       </c>
       <c r="J11" s="13">
-        <v>6294</v>
+        <v>13816</v>
       </c>
       <c r="K11" s="13">
-        <v>13816</v>
+        <v>19607</v>
       </c>
       <c r="L11" s="13">
-        <v>19607</v>
+        <v>26623</v>
       </c>
       <c r="M11" s="13">
-        <v>26623</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-5401</v>
+        <v>-4285</v>
       </c>
       <c r="E12" s="11">
-        <v>-4285</v>
+        <v>-1279</v>
       </c>
       <c r="F12" s="11">
-        <v>-1279</v>
-      </c>
-      <c r="G12" s="11">
         <v>-4751</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>26</v>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-6834</v>
       </c>
       <c r="I12" s="11">
-        <v>-6834</v>
+        <v>-1981</v>
       </c>
       <c r="J12" s="11">
-        <v>-1981</v>
+        <v>-4728</v>
       </c>
       <c r="K12" s="11">
-        <v>-4728</v>
+        <v>-7294</v>
       </c>
       <c r="L12" s="11">
-        <v>-7294</v>
+        <v>-9917</v>
       </c>
       <c r="M12" s="11">
-        <v>-9917</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2051</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>5386</v>
+        <v>4537</v>
       </c>
       <c r="E13" s="15">
-        <v>4537</v>
+        <v>1592</v>
       </c>
       <c r="F13" s="15">
-        <v>1592</v>
-      </c>
-      <c r="G13" s="15">
         <v>3473</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>26</v>
+      <c r="G13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="15">
+        <v>5246</v>
       </c>
       <c r="I13" s="15">
-        <v>5246</v>
+        <v>4313</v>
       </c>
       <c r="J13" s="15">
-        <v>4313</v>
+        <v>9088</v>
       </c>
       <c r="K13" s="15">
-        <v>9088</v>
+        <v>12313</v>
       </c>
       <c r="L13" s="15">
-        <v>12313</v>
+        <v>16706</v>
       </c>
       <c r="M13" s="15">
-        <v>16706</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-734</v>
+        <v>-426</v>
       </c>
       <c r="E14" s="11">
-        <v>-426</v>
+        <v>-118</v>
       </c>
       <c r="F14" s="11">
-        <v>-118</v>
-      </c>
-      <c r="G14" s="11">
         <v>-611</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>26</v>
+      <c r="G14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-1004</v>
       </c>
       <c r="I14" s="11">
-        <v>-1004</v>
+        <v>-334</v>
       </c>
       <c r="J14" s="11">
-        <v>-334</v>
+        <v>-848</v>
       </c>
       <c r="K14" s="11">
-        <v>-848</v>
+        <v>-1475</v>
       </c>
       <c r="L14" s="11">
-        <v>-1475</v>
+        <v>-1653</v>
       </c>
       <c r="M14" s="11">
-        <v>-1653</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1001,259 +1001,259 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>971</v>
+        <v>370</v>
       </c>
       <c r="E16" s="11">
-        <v>370</v>
+        <v>183</v>
       </c>
       <c r="F16" s="11">
-        <v>183</v>
-      </c>
-      <c r="G16" s="11">
         <v>283</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>26</v>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="11">
+        <v>471</v>
       </c>
       <c r="I16" s="11">
-        <v>471</v>
+        <v>142</v>
       </c>
       <c r="J16" s="11">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="K16" s="11">
-        <v>186</v>
+        <v>437</v>
       </c>
       <c r="L16" s="11">
-        <v>437</v>
+        <v>631</v>
       </c>
       <c r="M16" s="11">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>5623</v>
+        <v>4481</v>
       </c>
       <c r="E17" s="15">
-        <v>4481</v>
+        <v>1658</v>
       </c>
       <c r="F17" s="15">
-        <v>1658</v>
-      </c>
-      <c r="G17" s="15">
         <v>3144</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>26</v>
+      <c r="G17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4713</v>
       </c>
       <c r="I17" s="15">
-        <v>4713</v>
+        <v>4122</v>
       </c>
       <c r="J17" s="15">
-        <v>4122</v>
+        <v>8426</v>
       </c>
       <c r="K17" s="15">
-        <v>8426</v>
+        <v>11276</v>
       </c>
       <c r="L17" s="15">
-        <v>11276</v>
+        <v>15684</v>
       </c>
       <c r="M17" s="15">
-        <v>15684</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-462</v>
+        <v>-145</v>
       </c>
       <c r="E18" s="11">
-        <v>-145</v>
+        <v>-56</v>
       </c>
       <c r="F18" s="11">
-        <v>-56</v>
-      </c>
-      <c r="G18" s="11">
         <v>-160</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>26</v>
+      <c r="G18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-223</v>
       </c>
       <c r="I18" s="11">
-        <v>-223</v>
+        <v>-49</v>
       </c>
       <c r="J18" s="11">
-        <v>-49</v>
+        <v>-46</v>
       </c>
       <c r="K18" s="11">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="L18" s="11">
-        <v>-45</v>
-      </c>
-      <c r="M18" s="11">
         <v>-85</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="E19" s="13">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="F19" s="13">
-        <v>93</v>
-      </c>
-      <c r="G19" s="13">
         <v>165</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>26</v>
+      <c r="G19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="13">
+        <v>168</v>
       </c>
       <c r="I19" s="13">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="J19" s="13">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="K19" s="13">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="L19" s="13">
-        <v>109</v>
+        <v>376</v>
       </c>
       <c r="M19" s="13">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>5478</v>
+        <v>4557</v>
       </c>
       <c r="E20" s="17">
-        <v>4557</v>
+        <v>1695</v>
       </c>
       <c r="F20" s="17">
-        <v>1695</v>
-      </c>
-      <c r="G20" s="17">
         <v>3149</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>26</v>
+      <c r="G20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="17">
+        <v>4658</v>
       </c>
       <c r="I20" s="17">
-        <v>4658</v>
+        <v>4102</v>
       </c>
       <c r="J20" s="17">
-        <v>4102</v>
+        <v>8474</v>
       </c>
       <c r="K20" s="17">
-        <v>8474</v>
+        <v>11340</v>
       </c>
       <c r="L20" s="17">
-        <v>11340</v>
+        <v>15976</v>
       </c>
       <c r="M20" s="17">
-        <v>15976</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-636</v>
+        <v>-472</v>
       </c>
       <c r="E21" s="13">
-        <v>-472</v>
+        <v>-109</v>
       </c>
       <c r="F21" s="13">
-        <v>-109</v>
-      </c>
-      <c r="G21" s="13">
         <v>-278</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>26</v>
+      <c r="G21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-569</v>
       </c>
       <c r="I21" s="13">
-        <v>-569</v>
+        <v>-552</v>
       </c>
       <c r="J21" s="13">
+        <v>-1262</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-1646</v>
+      </c>
+      <c r="L21" s="13">
+        <v>-2022</v>
+      </c>
+      <c r="M21" s="13">
         <v>-552</v>
       </c>
-      <c r="K21" s="13">
-        <v>-1262</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-1646</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-2022</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>4842</v>
+        <v>4085</v>
       </c>
       <c r="E22" s="17">
-        <v>4085</v>
+        <v>1586</v>
       </c>
       <c r="F22" s="17">
-        <v>1586</v>
-      </c>
-      <c r="G22" s="17">
         <v>2872</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>26</v>
+      <c r="G22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="17">
+        <v>4089</v>
       </c>
       <c r="I22" s="17">
-        <v>4089</v>
+        <v>3550</v>
       </c>
       <c r="J22" s="17">
-        <v>3550</v>
+        <v>7211</v>
       </c>
       <c r="K22" s="17">
-        <v>7211</v>
+        <v>9694</v>
       </c>
       <c r="L22" s="17">
-        <v>9694</v>
+        <v>13954</v>
       </c>
       <c r="M22" s="17">
-        <v>13954</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1289,43 +1289,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>4842</v>
+        <v>4085</v>
       </c>
       <c r="E24" s="17">
-        <v>4085</v>
+        <v>1586</v>
       </c>
       <c r="F24" s="17">
-        <v>1586</v>
-      </c>
-      <c r="G24" s="17">
         <v>2872</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>26</v>
+      <c r="G24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="17">
+        <v>4089</v>
       </c>
       <c r="I24" s="17">
-        <v>4089</v>
+        <v>3550</v>
       </c>
       <c r="J24" s="17">
-        <v>3550</v>
+        <v>7211</v>
       </c>
       <c r="K24" s="17">
-        <v>7211</v>
+        <v>9694</v>
       </c>
       <c r="L24" s="17">
-        <v>9694</v>
+        <v>13954</v>
       </c>
       <c r="M24" s="17">
-        <v>13954</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1339,11 +1339,11 @@
       <c r="F25" s="13">
         <v>0</v>
       </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>26</v>
+      <c r="G25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>3761</v>
+        <v>2211</v>
       </c>
       <c r="E26" s="11">
-        <v>2211</v>
+        <v>1885</v>
       </c>
       <c r="F26" s="11">
-        <v>1885</v>
-      </c>
-      <c r="G26" s="11">
         <v>2018</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>26</v>
+      <c r="G26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3962</v>
       </c>
       <c r="I26" s="11">
-        <v>3962</v>
+        <v>1745</v>
       </c>
       <c r="J26" s="11">
-        <v>1745</v>
+        <v>1779</v>
       </c>
       <c r="K26" s="11">
-        <v>1779</v>
+        <v>3429</v>
       </c>
       <c r="L26" s="11">
-        <v>3429</v>
+        <v>3327</v>
       </c>
       <c r="M26" s="11">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1411,11 +1411,11 @@
       <c r="F27" s="13">
         <v>0</v>
       </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>26</v>
+      <c r="G27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
       </c>
       <c r="I27" s="13">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
